--- a/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>entity</t>
   </si>
@@ -420,6 +420,48 @@
   </si>
   <si>
     <t>SP141594618422320</t>
+  </si>
+  <si>
+    <t>SP151594793401570</t>
+  </si>
+  <si>
+    <t>SP131594793533634</t>
+  </si>
+  <si>
+    <t>SP01594793738235</t>
+  </si>
+  <si>
+    <t>SP31594794029468</t>
+  </si>
+  <si>
+    <t>SP71594794116860</t>
+  </si>
+  <si>
+    <t>SP71594794231318</t>
+  </si>
+  <si>
+    <t>SP11596015649947</t>
+  </si>
+  <si>
+    <t>SP81596015802066</t>
+  </si>
+  <si>
+    <t>SP121596015908450</t>
+  </si>
+  <si>
+    <t>SP191596022249934</t>
+  </si>
+  <si>
+    <t>SP41596022445155</t>
+  </si>
+  <si>
+    <t>SP121596022638208</t>
+  </si>
+  <si>
+    <t>SP21596022957700</t>
+  </si>
+  <si>
+    <t>SP91596023176084</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>entity</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>SP91596023176084</t>
+  </si>
+  <si>
+    <t>SP41596521193790</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/CollectedValuesForDSP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
   <si>
     <t>entity</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>SP41596521193790</t>
+  </si>
+  <si>
+    <t>SP111596720168534</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
